--- a/patient_data/patient_1.xlsx
+++ b/patient_data/patient_1.xlsx
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -948,22 +948,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
